--- a/ARM Results/Scenario 2/Unified_Claims_Liability_Summary_2.xlsx
+++ b/ARM Results/Scenario 2/Unified_Claims_Liability_Summary_2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joranias\Documents\GitHub\DMI_IBNP\ARM Results\Scenario 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD3DA209-5FCE-4DF4-9034-6A508C177EC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{361A83F1-1535-42CC-8221-597E3EB4D0B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9B94C235-4B85-4887-832D-FBC296CFB081}"/>
   </bookViews>
@@ -41,6 +41,10 @@
     <externalReference r:id="rId24"/>
     <externalReference r:id="rId25"/>
     <externalReference r:id="rId26"/>
+    <externalReference r:id="rId27"/>
+    <externalReference r:id="rId28"/>
+    <externalReference r:id="rId29"/>
+    <externalReference r:id="rId30"/>
   </externalReferences>
   <definedNames>
     <definedName name="IQ_CH">110000</definedName>
@@ -91,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="47">
   <si>
     <t>Company_Code</t>
   </si>
@@ -731,7 +735,7 @@
       <sheetData sheetId="2">
         <row r="33">
           <cell r="H33">
-            <v>13583.091940298507</v>
+            <v>75918.243577464978</v>
           </cell>
         </row>
       </sheetData>
@@ -795,6 +799,106 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
+      <sheetName val="Summary"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="36">
+          <cell r="E36">
+            <v>628236.15</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink21.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Completion Factors"/>
+      <sheetName val="Plot Patterns"/>
+      <sheetName val="Summary"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="33">
+          <cell r="H33">
+            <v>27702.723936340495</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink22.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Summary"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="36">
+          <cell r="E36">
+            <v>21308.7</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink23.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Completion Factors"/>
+      <sheetName val="Plot Patterns"/>
+      <sheetName val="Summary"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="33">
+          <cell r="H33">
+            <v>13583.091940298507</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink24.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
       <sheetName val="Completion Factors"/>
       <sheetName val="CL_By_LOB"/>
       <sheetName val="EOB Information"/>
@@ -836,7 +940,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink25.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -864,7 +968,33 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink26.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Completion Factors"/>
+      <sheetName val="Plot Patterns"/>
+      <sheetName val="Summary"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="33">
+          <cell r="L33">
+            <v>102257.36001311701</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink27.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -909,7 +1039,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink28.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -935,7 +1065,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink29.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -963,32 +1093,6 @@
         <row r="36">
           <cell r="H36">
             <v>777303.67606529</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink25.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Completion Factors"/>
-      <sheetName val="Plot Patterns"/>
-      <sheetName val="Summary"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="33">
-          <cell r="L33">
-            <v>102257.36001311701</v>
           </cell>
         </row>
       </sheetData>
@@ -1565,7 +1669,7 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A11" sqref="A11:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
@@ -2024,63 +2128,97 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="10"/>
+      <c r="B11" s="10">
+        <f>+[19]Summary!$H$33</f>
+        <v>75918.243577464978</v>
+      </c>
       <c r="C11" s="5">
         <v>0.05</v>
       </c>
       <c r="D11" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3795.9121788732491</v>
       </c>
       <c r="E11" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="11"/>
+        <v>79714.155756338223</v>
+      </c>
+      <c r="G11" s="10">
+        <f>+[20]Summary!$E$36</f>
+        <v>628236.15</v>
+      </c>
+      <c r="H11" s="10">
+        <f t="shared" ref="H11:H12" si="4">+E11-G11</f>
+        <v>-548521.99424366176</v>
+      </c>
+      <c r="I11" s="11">
+        <f t="shared" ref="I11:I12" si="5">+H11/G11</f>
+        <v>-0.87311434441278446</v>
+      </c>
       <c r="J11" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="L11" s="8"/>
+      <c r="L11" t="s">
+        <v>46</v>
+      </c>
+      <c r="M11" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="10"/>
+      <c r="B12" s="10">
+        <f>+[21]Summary!$H$33</f>
+        <v>27702.723936340495</v>
+      </c>
       <c r="C12" s="5">
         <v>0.05</v>
       </c>
       <c r="D12" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1385.1361968170249</v>
       </c>
       <c r="E12" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="11"/>
+        <v>29087.860133157519</v>
+      </c>
+      <c r="G12" s="10">
+        <f>+[22]Summary!$E$36</f>
+        <v>21308.7</v>
+      </c>
+      <c r="H12" s="10">
+        <f t="shared" si="4"/>
+        <v>7779.1601331575184</v>
+      </c>
+      <c r="I12" s="11">
+        <f t="shared" si="5"/>
+        <v>0.3650696726293729</v>
+      </c>
       <c r="J12" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="L12" s="8"/>
+      <c r="L12" t="s">
+        <v>46</v>
+      </c>
+      <c r="M12" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="13" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="10">
-        <f>+[19]Summary!$H$33</f>
+        <f>+[23]Summary!$H$33</f>
         <v>13583.091940298507</v>
       </c>
       <c r="C13" s="3">
-        <f>+[20]Summary!$H$35</f>
+        <f>+[24]Summary!$H$35</f>
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="D13" s="9">
@@ -2092,7 +2230,7 @@
         <v>14601.823835820895</v>
       </c>
       <c r="G13" s="10">
-        <f>+[20]Summary!$H$36</f>
+        <f>+[24]Summary!$H$36</f>
         <v>22925.112714356808</v>
       </c>
       <c r="H13" s="10">
@@ -2122,7 +2260,7 @@
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="3">
-        <f>+[21]Summary!$H$35</f>
+        <f>+[25]Summary!$H$35</f>
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="D14" s="9">
@@ -2154,11 +2292,11 @@
         <v>14</v>
       </c>
       <c r="B15" s="10">
-        <f>+[25]Summary!L33</f>
+        <f>+[26]Summary!L33</f>
         <v>102257.36001311701</v>
       </c>
       <c r="C15" s="3">
-        <f>+[22]Summary!$L$35</f>
+        <f>+[27]Summary!$L$35</f>
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="D15" s="9">
@@ -2170,7 +2308,7 @@
         <v>109926.66201410079</v>
       </c>
       <c r="G15" s="10">
-        <f>+[22]Summary!$L$36</f>
+        <f>+[27]Summary!$L$36</f>
         <v>70721.566596096614</v>
       </c>
       <c r="H15" s="10">
@@ -2199,11 +2337,11 @@
         <v>17</v>
       </c>
       <c r="B16" s="10">
-        <f>+[23]Summary!$H$33</f>
+        <f>+[28]Summary!$H$33</f>
         <v>799905.08245757408</v>
       </c>
       <c r="C16" s="3">
-        <f>+[24]Summary!$H$35</f>
+        <f>+[29]Summary!$H$35</f>
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="D16" s="9">
@@ -2215,7 +2353,7 @@
         <v>859897.96364189219</v>
       </c>
       <c r="G16" s="10">
-        <f>+[24]Summary!$H$36</f>
+        <f>+[29]Summary!$H$36</f>
         <v>777303.67606529</v>
       </c>
       <c r="H16" s="10">
@@ -2249,29 +2387,29 @@
       </c>
       <c r="B18" s="7">
         <f>+SUM(B2:B17)</f>
-        <v>1500169.637229332</v>
+        <v>1603790.6047431375</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="7">
         <f>+SUM(D2:D17)</f>
-        <v>112512.7227921999</v>
+        <v>117693.77116789017</v>
       </c>
       <c r="E18" s="7">
         <f>+SUM(E2:E17)</f>
-        <v>1612682.360021532</v>
+        <v>1721484.3759110277</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="7">
         <f>+SUM(G2:G17)</f>
-        <v>1483341.0326031842</v>
+        <v>2132885.8826031839</v>
       </c>
       <c r="H18" s="7">
         <f>+SUM(H2:H17)</f>
-        <v>129341.32741834785</v>
+        <v>-411401.50669215643</v>
       </c>
       <c r="I18" s="11">
         <f>+H18/G18</f>
-        <v>8.7195947914526936E-2</v>
+        <v>-0.19288491243143377</v>
       </c>
       <c r="J18" s="12"/>
     </row>
